--- a/meta/1-a-2.xlsx
+++ b/meta/1-a-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4AB62A-3038-4E9F-AA61-E1FE55CE95AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.а.2" sheetId="1" r:id="rId1"/>
@@ -259,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -428,9 +429,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -439,8 +437,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,9 +454,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -496,7 +494,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -531,6 +529,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -566,9 +581,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -741,27 +773,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="48.83984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -769,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -777,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -786,13 +818,13 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -800,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="42.3" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -808,7 +840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -816,7 +848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -824,7 +856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -832,13 +864,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="140.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -846,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="231.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -854,7 +886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -862,13 +894,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -876,7 +908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -884,13 +916,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -898,7 +930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -906,7 +938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -914,13 +946,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -928,7 +960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -936,34 +968,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="42.3" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B26" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="8" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="www.stat.kg"/>
-    <hyperlink ref="B8" r:id="rId2" display="m.abdukadirova@stat.kg"/>
+    <hyperlink ref="B10" r:id="rId1" display="www.stat.kg" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" display="m.abdukadirova@stat.kg" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
